--- a/techgear_sales_data.xlsx
+++ b/techgear_sales_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westminsteredu-my.sharepoint.com/personal/badowsr_westminster_edu/Documents/All Folders/Sophia/Business Data Analytics/Touchstones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D0A7A5-48C9-4789-B1E4-5C8D881A7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F0D0A7A5-48C9-4789-B1E4-5C8D881A7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E89D68-C49B-4262-BEB2-EE962BD9699A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06AECF3C-4EB5-42D5-8A29-6A87641557DD}"/>
+    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{06AECF3C-4EB5-42D5-8A29-6A87641557DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC16945-D7D2-4DA3-B177-BDAF331C5E5C}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:E63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,18 +1768,9 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1">
-        <f>AVERAGE(C2:C61)</f>
-        <v>297.26666666666665</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" ref="D63:E63" si="0">AVERAGE(D2:D61)</f>
-        <v>192.53333333333333</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="0"/>
-        <v>12.383333333333333</v>
-      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
